--- a/AISA.xlsx
+++ b/AISA.xlsx
@@ -18,7 +18,7 @@
     <sheet name="Estado De Resultados" sheetId="4" r:id="rId4"/>
     <sheet name="Estado de Flujos de Efectivo" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28300,7 +28300,7 @@
   <dimension ref="A1:F349"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F349"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
